--- a/graph_generation/results/hermes_llama2/level_9/k_3.xlsx
+++ b/graph_generation/results/hermes_llama2/level_9/k_3.xlsx
@@ -80,16 +80,16 @@
  Given these examples, answer the following quesiton.
 Is the following a valid eulerian graph, if traversal is started from A? Return True or False in response.
    A B C D E F G H I J
- A 0 0 0 0 1 0 1 0 1 1
- B 0 0 1 1 0 0 0 0 1 0
- C 0 1 0 0 1 0 0 0 0 1
- D 0 1 0 0 0 0 0 0 0 0
- E 1 0 1 0 0 1 1 1 0 0
- F 0 0 0 0 1 0 0 1 1 0
- G 1 0 0 0 1 0 0 0 0 0
- H 0 0 0 0 1 1 0 0 0 0
- I 1 1 0 0 0 1 0 0 0 1
- J 1 0 1 0 0 0 0 0 1 0
+ A 0 0 0 1 0 0 0 0 0 1
+ B 0 0 1 0 0 1 0 1 0 0
+ C 0 1 0 0 0 0 0 1 0 0
+ D 1 0 0 0 0 0 1 0 1 1
+ E 0 0 0 0 0 0 0 1 0 0
+ F 0 1 0 0 0 0 0 1 0 0
+ G 0 0 0 1 0 0 0 1 0 1
+ H 0 1 1 0 1 1 1 0 0 0
+ I 0 0 0 1 0 0 0 0 0 0
+ J 1 0 0 1 0 0 1 0 0 0
     </t>
   </si>
   <si>
@@ -145,16 +145,16 @@
  Given these examples, answer the following quesiton.
 Is the following a valid eulerian graph, if traversal is started from A? Return True or False in response.
    A B C D E F G H I J
- A 0 0 1 0 0 0 0 0 1 0
- B 0 0 0 0 0 1 1 0 0 0
- C 1 0 0 0 0 0 1 1 0 0
- D 0 0 0 0 1 1 1 0 1 0
- E 0 0 0 1 0 0 0 1 1 0
- F 0 1 0 1 0 0 0 0 0 0
- G 0 1 1 1 0 0 0 1 0 0
- H 0 0 1 0 1 0 1 0 0 1
- I 1 0 0 1 1 0 0 0 0 0
- J 0 0 0 0 0 0 0 1 0 0
+ A 0 0 0 0 0 0 1 0 0 1
+ B 0 0 0 1 0 0 1 0 1 0
+ C 0 0 0 1 1 0 0 0 1 0
+ D 0 1 1 0 0 1 1 0 1 0
+ E 0 0 1 0 0 1 0 1 1 0
+ F 0 0 0 1 1 0 0 0 1 1
+ G 1 1 0 1 0 0 0 0 1 1
+ H 0 0 0 0 1 0 0 0 1 0
+ I 0 1 1 1 1 1 1 1 0 0
+ J 1 0 0 0 0 1 1 0 0 0
     </t>
   </si>
   <si>
@@ -208,18 +208,18 @@
  N 0 1 0 0 0 1 0 0 0 0 0 1 1 0
 Solution: This is a valid eulerian graph
  Given these examples, answer the following quesiton.
-Is the following a valid eulerian graph, if traversal is started from 0? Return True or False in response.
+Is the following a valid eulerian graph, if traversal is started from 5? Return True or False in response.
    A B C D E F G H I J
- A 0 1 1 0 1 0 1 0 0 1
- B 1 0 1 0 1 0 1 1 0 1
- C 1 1 0 1 0 0 0 1 0 0
- D 0 0 1 0 1 0 0 0 0 0
- E 1 1 0 1 0 1 0 0 0 0
- F 0 0 0 0 1 0 1 0 1 1
- G 1 1 0 0 0 1 0 1 0 0
- H 0 1 1 0 0 0 1 0 1 0
- I 0 0 0 0 0 1 0 1 0 0
- J 1 1 0 0 0 1 0 0 0 0
+ A 0 1 0 1 1 0 0 0 0 0
+ B 1 0 1 1 1 1 1 1 1 0
+ C 0 1 0 1 0 0 0 0 0 0
+ D 1 1 1 0 1 1 1 0 0 0
+ E 1 1 0 1 0 1 0 0 0 1
+ F 0 1 0 1 1 0 1 0 0 0
+ G 0 1 0 1 0 1 0 1 1 1
+ H 0 1 0 0 0 0 1 0 0 0
+ I 0 1 0 0 0 0 1 0 0 0
+ J 0 0 0 0 1 0 1 0 0 0
     </t>
   </si>
   <si>
@@ -273,17 +273,17 @@
  N 0 1 0 0 0 1 0 0 0 0 0 1 1 0
 Solution: This is a valid eulerian graph
  Given these examples, answer the following quesiton.
-Is the following a valid eulerian graph, if traversal is started from 0? Return True or False in response.
+Is the following a valid eulerian graph, if traversal is started from 2? Return True or False in response.
    A B C D E F G H I J
- A 0 1 0 1 0 0 0 0 1 0
- B 1 0 1 0 1 0 1 0 0 0
- C 0 1 0 1 0 0 0 0 0 1
- D 1 0 1 0 1 0 0 0 0 1
- E 0 1 0 1 0 1 0 1 0 0
- F 0 0 0 0 1 0 1 0 0 0
- G 0 1 0 0 0 1 0 0 0 0
- H 0 0 0 0 1 0 0 0 1 0
- I 1 0 0 0 0 0 0 1 0 0
+ A 0 1 0 1 0 1 0 0 0 0
+ B 1 0 1 0 1 0 0 1 1 0
+ C 0 1 0 1 1 0 1 1 0 1
+ D 1 0 1 0 1 0 0 1 1 1
+ E 0 1 1 1 0 1 1 1 0 0
+ F 1 0 0 0 1 0 0 0 0 0
+ G 0 0 1 0 1 0 0 0 0 0
+ H 0 1 1 1 1 0 0 0 0 0
+ I 0 1 0 1 0 0 0 0 0 0
  J 0 0 1 1 0 0 0 0 0 0
     </t>
   </si>
@@ -338,18 +338,18 @@
  N 0 1 0 0 0 1 0 0 0 0 0 1 1 0
 Solution: This is a valid eulerian graph
  Given these examples, answer the following quesiton.
-Is the following a valid eulerian graph, if traversal is started from 1? Return True or False in response.
+Is the following a valid eulerian graph, if traversal is started from A? Return True or False in response.
    A B C D E F G H I J
- A 0 1 1 0 0 0 0 1 0 0
- B 1 0 1 1 0 0 0 1 0 0
- C 1 1 0 1 1 1 1 0 1 0
- D 0 1 1 0 1 0 0 0 0 1
- E 0 0 1 1 0 1 0 0 1 0
- F 0 0 1 0 1 0 1 1 0 0
- G 0 0 1 0 0 1 0 0 0 0
- H 1 1 0 0 0 1 0 0 1 0
- I 0 0 1 0 1 0 0 1 0 1
- J 0 0 0 1 0 0 0 0 1 0
+ A 0 1 0 0 1 0 1 0 0 0
+ B 1 0 0 1 0 0 1 0 0 0
+ C 0 0 0 1 0 0 1 0 0 0
+ D 0 1 1 0 0 1 0 1 0 0
+ E 1 0 0 0 0 1 1 0 1 1
+ F 0 0 0 1 1 0 1 1 0 0
+ G 1 1 1 0 1 1 0 1 0 1
+ H 0 0 0 1 0 1 1 0 1 1
+ I 0 0 0 0 1 0 0 1 0 0
+ J 0 0 0 0 1 0 1 1 0 0
     </t>
   </si>
   <si>
@@ -403,18 +403,18 @@
  N 0 1 0 0 0 1 0 0 0 0 0 1 1 0
 Solution: This is a valid eulerian graph
  Given these examples, answer the following quesiton.
-Is the following a valid eulerian graph, if traversal is started from 2? Return True or False in response.
+Is the following a valid eulerian graph, if traversal is started from A? Return True or False in response.
    A B C D E F G H I J
- A 0 1 0 0 0 1 0 1 0 0
- B 1 0 1 0 0 0 0 0 0 0
- C 0 1 0 1 0 0 1 0 0 0
- D 0 0 1 0 1 0 0 0 0 0
- E 0 0 0 1 0 1 0 0 0 0
- F 1 0 0 0 1 0 0 0 0 0
- G 0 0 1 0 0 0 0 1 1 1
- H 1 0 0 0 0 0 1 0 0 0
- I 0 0 0 0 0 0 1 0 0 1
- J 0 0 0 0 0 0 1 0 1 0
+ A 0 0 0 0 1 1 0 1 0 0
+ B 0 0 0 1 0 0 0 0 0 0
+ C 0 0 0 0 1 0 0 0 1 1
+ D 0 1 0 0 1 0 1 0 0 1
+ E 1 0 1 1 0 1 1 0 0 0
+ F 1 0 0 0 1 0 0 1 1 0
+ G 0 0 0 1 1 0 0 0 0 0
+ H 1 0 0 0 0 1 0 0 0 0
+ I 0 0 1 0 0 1 0 0 0 0
+ J 0 0 1 1 0 0 0 0 0 0
     </t>
   </si>
   <si>
@@ -468,18 +468,18 @@
  N 0 1 0 0 0 1 0 0 0 0 0 1 1 0
 Solution: This is a valid eulerian graph
  Given these examples, answer the following quesiton.
-Is the following a valid eulerian graph, if traversal is started from A? Return True or False in response.
+Is the following a valid eulerian graph, if traversal is started from 2? Return True or False in response.
    A B C D E F G H I J
- A 0 0 0 0 1 0 0 1 0 1
- B 0 0 0 1 0 0 0 0 0 0
- C 0 0 0 0 0 1 0 0 1 0
- D 0 1 0 0 0 1 0 0 1 0
- E 1 0 0 0 0 1 1 1 1 0
- F 0 0 1 1 1 0 0 1 0 0
- G 0 0 0 0 1 0 0 0 0 1
- H 1 0 0 0 1 1 0 0 1 1
- I 0 0 1 1 1 0 0 1 0 1
- J 1 0 0 0 0 0 1 1 1 0
+ A 0 1 1 1 1 0 0 1 0 0
+ B 1 0 1 0 0 1 0 0 0 1
+ C 1 1 0 1 1 1 0 0 0 0
+ D 1 0 1 0 0 0 0 0 0 0
+ E 1 0 1 0 0 1 0 0 1 0
+ F 0 1 1 0 1 0 1 0 0 0
+ G 0 0 0 0 0 1 0 1 1 1
+ H 1 0 0 0 0 0 1 0 0 0
+ I 0 0 0 0 1 0 1 0 0 0
+ J 0 1 0 0 0 0 1 0 0 0
     </t>
   </si>
   <si>
@@ -535,16 +535,16 @@
  Given these examples, answer the following quesiton.
 Is the following a valid eulerian graph, if traversal is started from A? Return True or False in response.
    A B C D E F G H I J
- A 0 0 0 0 0 1 0 0 0 0
- B 0 0 0 1 1 1 1 1 0 0
- C 0 0 0 0 0 1 0 0 0 0
- D 0 1 0 0 0 1 0 1 0 0
- E 0 1 0 0 0 0 0 0 0 1
- F 1 1 1 1 0 0 0 0 0 0
- G 0 1 0 0 0 0 0 0 0 0
- H 0 1 0 1 0 0 0 0 0 0
- I 0 0 0 0 0 0 0 0 0 1
- J 0 0 0 0 1 0 0 0 1 0
+ A 0 1 0 1 1 0 0 0 0 0
+ B 1 0 0 1 0 1 0 0 0 0
+ C 0 0 0 0 0 1 1 1 0 0
+ D 1 1 0 0 0 1 0 1 1 0
+ E 1 0 0 0 0 0 0 0 0 1
+ F 0 1 1 1 0 0 1 1 0 0
+ G 0 0 1 0 0 1 0 0 1 0
+ H 0 0 1 1 0 1 0 0 0 1
+ I 0 0 0 1 0 0 1 0 0 0
+ J 0 0 0 0 1 0 0 1 0 0
     </t>
   </si>
   <si>
@@ -598,18 +598,18 @@
  N 0 1 0 0 0 1 0 0 0 0 0 1 1 0
 Solution: This is a valid eulerian graph
  Given these examples, answer the following quesiton.
-Is the following a valid eulerian graph, if traversal is started from 0? Return True or False in response.
+Is the following a valid eulerian graph, if traversal is started from A? Return True or False in response.
    A B C D E F G H I J
- A 0 1 0 0 0 1 0 0 0 1
- B 1 0 1 0 0 1 0 1 0 0
- C 0 1 0 1 1 1 1 0 0 0
- D 0 0 1 0 1 0 1 0 1 0
- E 0 0 1 1 0 1 0 0 1 0
- F 1 1 1 0 1 0 1 1 0 0
- G 0 0 1 1 0 1 0 1 0 0
- H 0 1 0 0 0 1 1 0 1 0
- I 0 0 0 1 1 0 0 1 0 1
- J 1 0 0 0 0 0 0 0 1 0
+ A 0 0 0 0 0 1 0 0 0 0
+ B 0 0 0 0 0 1 1 0 0 0
+ C 0 0 0 0 0 0 0 1 0 0
+ D 0 0 0 0 1 0 0 0 0 1
+ E 0 0 0 1 0 1 1 1 1 1
+ F 1 1 0 0 1 0 0 1 1 1
+ G 0 1 0 0 1 0 0 1 0 0
+ H 0 0 1 0 1 1 1 0 1 0
+ I 0 0 0 0 1 1 0 1 0 1
+ J 0 0 0 1 1 1 0 0 1 0
     </t>
   </si>
   <si>
@@ -663,18 +663,18 @@
  N 0 1 0 0 0 1 0 0 0 0 0 1 1 0
 Solution: This is a valid eulerian graph
  Given these examples, answer the following quesiton.
-Is the following a valid eulerian graph, if traversal is started from A? Return True or False in response.
+Is the following a valid eulerian graph, if traversal is started from 4? Return True or False in response.
    A B C D E F G H I J
- A 0 1 0 1 0 1 0 0 0 0
- B 1 0 0 0 0 0 0 0 0 0
- C 0 0 0 0 0 0 0 1 1 1
- D 1 0 0 0 0 0 1 0 0 0
- E 0 0 0 0 0 1 0 0 0 0
- F 1 0 0 0 1 0 0 0 0 1
- G 0 0 0 1 0 0 0 0 1 1
- H 0 0 1 0 0 0 0 0 0 0
- I 0 0 1 0 0 0 1 0 0 0
- J 0 0 1 0 0 1 1 0 0 0
+ A 0 1 0 0 0 1 0 0 1 0
+ B 1 0 1 0 0 0 0 1 1 0
+ C 0 1 0 1 1 0 0 0 0 1
+ D 0 0 1 0 1 0 0 0 0 0
+ E 0 0 1 1 0 1 0 0 1 0
+ F 1 0 0 0 1 0 1 1 0 0
+ G 0 0 0 0 0 1 0 1 0 0
+ H 0 1 0 0 0 1 1 0 0 0
+ I 1 1 0 0 1 0 0 0 0 1
+ J 0 0 1 0 0 0 0 0 1 0
     </t>
   </si>
   <si>
@@ -684,16 +684,16 @@
     <t>This is a valid eulerian graph</t>
   </si>
   <si>
+    <t>This is not a valid eulerian graph.</t>
+  </si>
+  <si>
     <t>This is a valid eulerian graph.</t>
   </si>
   <si>
-    <t>This is not a valid eulerian graph.</t>
+    <t>Correct</t>
   </si>
   <si>
     <t>Wrong</t>
-  </si>
-  <si>
-    <t>Correct</t>
   </si>
 </sst>
 </file>
@@ -1107,10 +1107,10 @@
         <v>15</v>
       </c>
       <c r="C4" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D4" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -1132,13 +1132,13 @@
         <v>8</v>
       </c>
       <c r="B6" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C6" t="s">
         <v>17</v>
       </c>
       <c r="D6" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -1146,10 +1146,10 @@
         <v>9</v>
       </c>
       <c r="B7" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C7" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D7" t="s">
         <v>18</v>
@@ -1160,13 +1160,13 @@
         <v>10</v>
       </c>
       <c r="B8" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C8" t="s">
         <v>17</v>
       </c>
       <c r="D8" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -1188,13 +1188,13 @@
         <v>12</v>
       </c>
       <c r="B10" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C10" t="s">
         <v>16</v>
       </c>
       <c r="D10" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -1202,13 +1202,13 @@
         <v>13</v>
       </c>
       <c r="B11" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C11" t="s">
         <v>17</v>
       </c>
       <c r="D11" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
   </sheetData>
